--- a/Trabalho Final/Tabelas/funcao.xlsx
+++ b/Trabalho Final/Tabelas/funcao.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="funcao" localSheetId="0">Plan1!$A$2:$E$27</definedName>
+    <definedName name="funcao" localSheetId="0">Plan1!$A$2:$B$27</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,10 +30,7 @@
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="funcao" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\ProgramData\MySQL\MySQL Server 5.7\Uploads\funcao.csv" decimal="," thousands="." comma="1">
-      <textFields count="5">
-        <textField type="text"/>
-        <textField type="text"/>
-        <textField type="text"/>
+      <textFields count="2">
         <textField type="text"/>
         <textField type="text"/>
       </textFields>
@@ -43,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>2</t>
   </si>
@@ -51,279 +48,120 @@
     <t>Judiciria</t>
   </si>
   <si>
-    <t>52000</t>
-  </si>
-  <si>
-    <t>52121</t>
-  </si>
-  <si>
-    <t>160036</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
     <t>Essencial  Justia</t>
   </si>
   <si>
-    <t>20000</t>
-  </si>
-  <si>
-    <t>63101</t>
-  </si>
-  <si>
-    <t>110581</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
     <t>Administrao</t>
   </si>
   <si>
-    <t>20101</t>
-  </si>
-  <si>
-    <t>110001</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
     <t>Defesa Nacional</t>
   </si>
   <si>
-    <t>52101</t>
-  </si>
-  <si>
-    <t>110402</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
     <t>Segurana Pblica</t>
   </si>
   <si>
-    <t>30000</t>
-  </si>
-  <si>
-    <t>30101</t>
-  </si>
-  <si>
-    <t>200001</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
     <t>Relaes Exteriores</t>
   </si>
   <si>
-    <t>35000</t>
-  </si>
-  <si>
-    <t>35201</t>
-  </si>
-  <si>
-    <t>244001</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
     <t>Assistncia Social</t>
   </si>
   <si>
-    <t>33000</t>
-  </si>
-  <si>
-    <t>33201</t>
-  </si>
-  <si>
-    <t>510120</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
     <t>Previdncia Social</t>
   </si>
   <si>
-    <t>33101</t>
-  </si>
-  <si>
-    <t>330001</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
     <t>Sade</t>
   </si>
   <si>
-    <t>26000</t>
-  </si>
-  <si>
-    <t>26242</t>
-  </si>
-  <si>
-    <t>153080</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
     <t>Trabalho</t>
   </si>
   <si>
-    <t>38000</t>
-  </si>
-  <si>
-    <t>38101</t>
-  </si>
-  <si>
-    <t>380001</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
     <t>Educao</t>
   </si>
   <si>
-    <t>26101</t>
-  </si>
-  <si>
-    <t>150002</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
     <t>Cultura</t>
   </si>
   <si>
-    <t>26273</t>
-  </si>
-  <si>
-    <t>154042</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
     <t>Direitos da Cidadania</t>
   </si>
   <si>
-    <t>64101</t>
-  </si>
-  <si>
-    <t>200016</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
     <t>Urbanismo</t>
   </si>
   <si>
-    <t>56000</t>
-  </si>
-  <si>
-    <t>56101</t>
-  </si>
-  <si>
-    <t>560005</t>
-  </si>
-  <si>
     <t>17</t>
   </si>
   <si>
     <t>Saneamento</t>
   </si>
   <si>
-    <t>26271</t>
-  </si>
-  <si>
-    <t>154019</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
     <t>Gesto Ambiental</t>
   </si>
   <si>
-    <t>44000</t>
-  </si>
-  <si>
-    <t>44101</t>
-  </si>
-  <si>
-    <t>440001</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
     <t>Cincia e Tecnologia</t>
   </si>
   <si>
-    <t>24000</t>
-  </si>
-  <si>
-    <t>24101</t>
-  </si>
-  <si>
-    <t>240101</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
     <t>Agricultura</t>
   </si>
   <si>
-    <t>22000</t>
-  </si>
-  <si>
-    <t>22101</t>
-  </si>
-  <si>
-    <t>130001</t>
-  </si>
-  <si>
     <t>21</t>
   </si>
   <si>
     <t>Organizao Agrria</t>
   </si>
   <si>
-    <t>49000</t>
-  </si>
-  <si>
-    <t>22201</t>
-  </si>
-  <si>
-    <t>133003</t>
-  </si>
-  <si>
     <t>22</t>
   </si>
   <si>
     <t>Indstria</t>
   </si>
   <si>
-    <t>28000</t>
-  </si>
-  <si>
-    <t>28101</t>
-  </si>
-  <si>
-    <t>280104</t>
-  </si>
-  <si>
     <t>23</t>
   </si>
   <si>
@@ -336,82 +174,34 @@
     <t>Comunicaes</t>
   </si>
   <si>
-    <t>20415</t>
-  </si>
-  <si>
-    <t>115406</t>
-  </si>
-  <si>
     <t>25</t>
   </si>
   <si>
     <t>Energia</t>
   </si>
   <si>
-    <t>32000</t>
-  </si>
-  <si>
-    <t>32101</t>
-  </si>
-  <si>
-    <t>320004</t>
-  </si>
-  <si>
     <t>26</t>
   </si>
   <si>
     <t>Transporte</t>
   </si>
   <si>
-    <t>62101</t>
-  </si>
-  <si>
-    <t>110590</t>
-  </si>
-  <si>
     <t>27</t>
   </si>
   <si>
     <t>Desporto e Lazer</t>
   </si>
   <si>
-    <t>51000</t>
-  </si>
-  <si>
-    <t>51101</t>
-  </si>
-  <si>
-    <t>180002</t>
-  </si>
-  <si>
     <t>28</t>
   </si>
   <si>
     <t>Encargos Especiais</t>
   </si>
   <si>
-    <t>25000</t>
-  </si>
-  <si>
-    <t>73901</t>
-  </si>
-  <si>
-    <t>170395</t>
-  </si>
-  <si>
     <t>codigo</t>
   </si>
   <si>
     <t>nome</t>
-  </si>
-  <si>
-    <t>cod_superior</t>
-  </si>
-  <si>
-    <t>cod_subordinado</t>
-  </si>
-  <si>
-    <t>cod_unidade_gestora</t>
   </si>
 </sst>
 </file>
@@ -734,477 +524,232 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="1" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="1" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="1" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="1" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="1" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="1" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="1" t="s">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="1" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="1" t="s">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="1" t="s">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
